--- a/管理/仕様＆企画/仕様/恋愛/恋愛パートB.xlsx
+++ b/管理/仕様＆企画/仕様/恋愛/恋愛パートB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\仕様＆企画\仕様\恋愛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\仕様＆企画\仕様\恋愛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072FFECF-CD85-4DF5-B973-F24BA025AD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A11AE7-6E23-4B54-9EF4-6F13ADEB0C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3017DB43-1B32-40F0-8D0D-D05DCEAC418B}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="2" xr2:uid="{3017DB43-1B32-40F0-8D0D-D05DCEAC418B}"/>
   </bookViews>
   <sheets>
     <sheet name="Aからの遷移" sheetId="1" r:id="rId1"/>
@@ -1188,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0D7814-488A-4213-8CB0-488E63ABEB17}">
   <dimension ref="M1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1297,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088FA882-ED08-440A-91CB-652DE4F8A51C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A599E119-B357-4798-9556-4A62B58EA5FE}">
   <dimension ref="B20:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
@@ -1444,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B21B24-BC47-4287-A31C-4B6525EB8851}">
   <dimension ref="N2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
